--- a/autoinsurancerates.xlsx
+++ b/autoinsurancerates.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.waters\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.waters\Desktop\greenVsRedStates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA5CBC9-DEC3-4278-9C22-16B12E475DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF07ABB-54F7-48B9-9FC9-20623FBBF365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3390" windowWidth="14700" windowHeight="11385" xr2:uid="{7A608036-6B2C-448B-A19D-DAAF49E291DF}"/>
+    <workbookView xWindow="30270" yWindow="3585" windowWidth="22335" windowHeight="13530" xr2:uid="{7A608036-6B2C-448B-A19D-DAAF49E291DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Alabama</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Cut off for Red v Green</t>
   </si>
 </sst>
 </file>
@@ -232,13 +235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F8F4"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -264,12 +267,14 @@
     <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -588,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBF9009-A31E-4357-BA01-6EE8891EB357}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,473 +606,934 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="2">
         <v>1542</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2">
+      <c r="H2" s="2">
         <v>1023</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2560</v>
+      </c>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1023</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
+      <c r="H3" s="2">
         <v>1116</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2546</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="H4" s="2">
         <v>1121</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2137</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1121</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2">
+      <c r="H5" s="2">
         <v>1158</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2133</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1158</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2">
+      <c r="H6" s="2">
         <v>1244</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="I6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2115</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1244</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+      <c r="H7" s="2">
         <v>1256</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2105</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1256</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="H8" s="2">
         <v>1306</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2104</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1306</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2">
+      <c r="H9" s="2">
         <v>1307</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1307</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="H10" s="2">
         <v>1321</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="I10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1321</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4">
+      <c r="H11" s="2">
         <v>1321</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="I11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1321</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
+      <c r="H12" s="2">
         <v>1359</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1940</v>
+      </c>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1359</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
+      <c r="H13" s="2">
         <v>1368</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1901</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1368</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="G14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2">
+      <c r="H14" s="2">
         <v>1371</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="I14" s="3"/>
+      <c r="K14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1894</v>
+      </c>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1371</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="G15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4">
+      <c r="H15" s="2">
         <v>1373</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="I15" s="3"/>
+      <c r="K15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1875</v>
+      </c>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1373</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4">
+      <c r="H16" s="2">
         <v>1419</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="I16" s="3"/>
+      <c r="K16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1858</v>
+      </c>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1419</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4">
+      <c r="H17" s="2">
         <v>1445</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="I17" s="3"/>
+      <c r="K17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1845</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1445</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4">
+      <c r="H18" s="2">
         <v>1469</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+      <c r="K18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1797</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1469</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="H19" s="2">
         <v>1493</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="I19" s="3"/>
+      <c r="K19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1750</v>
+      </c>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1493</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4">
+      <c r="H20" s="2">
         <v>1499</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+      <c r="K20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1736</v>
+      </c>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1499</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2">
+      <c r="H21" s="2">
         <v>1505</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1505</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="H22" s="2">
         <v>1538</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1538</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1542</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>1578</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="3"/>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1578</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>1581</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="3"/>
+      <c r="G25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1581</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="2">
         <v>1594</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="3"/>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1594</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="2">
         <v>1597</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="3"/>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1597</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="2">
         <v>1606</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="3"/>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1606</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>1610</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="3"/>
+      <c r="G29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1610</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>1617</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1617</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="2">
         <v>1640</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1640</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="2">
         <v>1647</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="3"/>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1647</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="2">
         <v>1692</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1692</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="5">
         <v>1736</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="5">
         <v>1750</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="5">
         <v>1797</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="5">
         <v>1845</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="5">
         <v>1858</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="5">
         <v>1875</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="5">
         <v>1894</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="5">
         <v>1901</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="5">
         <v>1940</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="5">
         <v>2018</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="5">
         <v>2104</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="5">
         <v>2105</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="5">
         <v>2115</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="5">
         <v>2133</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="5">
         <v>2137</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="5">
         <v>2546</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="5">
         <v>2560</v>
       </c>
+      <c r="C52" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B51" xr:uid="{FDBF9009-A31E-4357-BA01-6EE8891EB357}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B51">
-      <sortCondition ref="B1:B51"/>
+  <autoFilter ref="L1:L54" xr:uid="{FDBF9009-A31E-4357-BA01-6EE8891EB357}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:L54">
+      <sortCondition descending="1" ref="L1:L54"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-alabama/" xr:uid="{B8EEB07A-1528-4809-901C-84E261346A49}"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-alaska/" xr:uid="{D7090925-29C3-4374-98BC-74E0B06BF11D}"/>
-    <hyperlink ref="A29" r:id="rId3" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-arizona/" xr:uid="{E234009C-5216-409E-AB92-0C31D6A4F026}"/>
-    <hyperlink ref="A26" r:id="rId4" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-arkansas/" xr:uid="{F2D59225-0AE2-4CBE-8A79-944F38C6563D}"/>
-    <hyperlink ref="A47" r:id="rId5" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-california/" xr:uid="{7F9D9BD2-9B66-4A53-9133-73C2DFDCC5D1}"/>
-    <hyperlink ref="A41" r:id="rId6" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-colorado/" xr:uid="{59E73309-0700-4BCA-A8D5-690679D19D03}"/>
-    <hyperlink ref="A34" r:id="rId7" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-connecticut/" xr:uid="{103EE9DA-E434-4C44-94CD-72B7FF330B7F}"/>
-    <hyperlink ref="A49" r:id="rId8" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-delaware/" xr:uid="{11AD223E-7096-4772-B00A-4F39A5CB44FF}"/>
-    <hyperlink ref="A51" r:id="rId9" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-florida/" xr:uid="{9FC28D3D-96A5-4036-8F76-D7CEE60ECB1C}"/>
-    <hyperlink ref="A31" r:id="rId10" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-georgia/" xr:uid="{4C930472-059E-44FF-AFAD-AFAE62ACD4BD}"/>
-    <hyperlink ref="A8" r:id="rId11" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-hawaii/" xr:uid="{751D5BB7-5748-43AA-A0E2-D90108AECB88}"/>
-    <hyperlink ref="A4" r:id="rId12" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-idaho/" xr:uid="{BA519E37-3338-4CC9-ADB2-814A56EFB92A}"/>
-    <hyperlink ref="A23" r:id="rId13" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-illinois/" xr:uid="{A2C36098-E367-4648-B83F-82C7444B93B1}"/>
-    <hyperlink ref="A7" r:id="rId14" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-indiana/" xr:uid="{42BFB8E0-7C4A-4DD8-B485-19B192E7A24D}"/>
-    <hyperlink ref="A10" r:id="rId15" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-iowa/" xr:uid="{24B9E0AC-BDE6-46CC-B6AA-6287DF65E32D}"/>
-    <hyperlink ref="A25" r:id="rId16" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-kansas/" xr:uid="{0F7160B9-741C-4C8A-B63E-DC6A41874DD6}"/>
-    <hyperlink ref="A46" r:id="rId17" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-kentucky/" xr:uid="{D335D252-EFCD-4B1B-B768-4EEFDFC8599D}"/>
-    <hyperlink ref="A50" r:id="rId18" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-louisiana/" xr:uid="{8D92997F-079D-4A19-BC4E-0806E3135B6B}"/>
-    <hyperlink ref="A3" r:id="rId19" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-maine/" xr:uid="{D089DFDE-7E0A-4956-A260-B9296EC870F1}"/>
-    <hyperlink ref="A30" r:id="rId20" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-maryland/" xr:uid="{BE1352D6-C243-439E-AC5D-D6DC57530AE1}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-massachusetts/" xr:uid="{80329969-C9A3-4DA6-8B6A-BBD52944B608}"/>
-    <hyperlink ref="A48" r:id="rId22" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-michigan/" xr:uid="{374F9FDE-F22B-4FCD-B768-9F938BD45A81}"/>
-    <hyperlink ref="A19" r:id="rId23" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-minnesota/" xr:uid="{6963BD3C-E519-4106-B0DC-EA843DF1D110}"/>
-    <hyperlink ref="A27" r:id="rId24" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-mississippi/" xr:uid="{D50854D3-1871-4232-B218-AEADBD8303DD}"/>
-    <hyperlink ref="A45" r:id="rId25" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-missouri/" xr:uid="{0CEBCE59-73EA-41B4-BE04-40D48F4779B5}"/>
-    <hyperlink ref="A32" r:id="rId26" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-montana/" xr:uid="{02D5FBB8-9378-4282-8A37-03C4BFCD693C}"/>
-    <hyperlink ref="A42" r:id="rId27" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-nebraska/" xr:uid="{EC5B2D80-C5A9-4922-A751-6C428EA56DD3}"/>
-    <hyperlink ref="A44" r:id="rId28" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-nevada/" xr:uid="{9CDA052A-EA14-4B36-B66C-253E27763259}"/>
-    <hyperlink ref="A9" r:id="rId29" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-hampshire/" xr:uid="{7129EDB6-098C-46EA-B881-6B9459C7A6F7}"/>
-    <hyperlink ref="A40" r:id="rId30" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-jersey/" xr:uid="{FDCE2A41-BE98-424F-A710-F32D6FE05507}"/>
-    <hyperlink ref="A21" r:id="rId31" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-mexico/" xr:uid="{CB48E3AA-F31F-4B09-8FB8-412D71384000}"/>
-    <hyperlink ref="A43" r:id="rId32" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-york/" xr:uid="{95ACF90A-B858-4695-8F98-786EA3BA7D26}"/>
-    <hyperlink ref="A13" r:id="rId33" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-north-carolina/" xr:uid="{C884B6D0-4A86-41AD-92ED-6EEAA7D0A9CE}"/>
-    <hyperlink ref="A16" r:id="rId34" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-north-dakota/" xr:uid="{0570C618-8E5B-4788-B39E-D2EF77916CDB}"/>
-    <hyperlink ref="A2" r:id="rId35" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-ohio/" xr:uid="{63C6835F-CFCD-4F0F-833B-864B15A6F4C8}"/>
-    <hyperlink ref="A35" r:id="rId36" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-oklahoma/" xr:uid="{13FCA878-9C64-4247-9DEF-72674D154B05}"/>
-    <hyperlink ref="A6" r:id="rId37" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-oregon/" xr:uid="{73A29B9F-C44F-4700-BBE4-224CE180EAF9}"/>
-    <hyperlink ref="A17" r:id="rId38" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-pennsylvania/" xr:uid="{8CCF4826-6E9C-4809-A7DB-0573195FC95C}"/>
-    <hyperlink ref="A36" r:id="rId39" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-rhode-island/" xr:uid="{F265311C-6FFB-41A5-B650-C473F1A1C043}"/>
-    <hyperlink ref="A39" r:id="rId40" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-south-carolina/" xr:uid="{1169D0D3-5AAB-492A-AA19-80B14264845E}"/>
-    <hyperlink ref="A24" r:id="rId41" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-south-dakota/" xr:uid="{4E3130E6-4999-48BC-A60D-C357EB96FF04}"/>
-    <hyperlink ref="A15" r:id="rId42" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-tennessee/" xr:uid="{6084385C-0CDA-4016-8B8C-7902AF953B94}"/>
-    <hyperlink ref="A38" r:id="rId43" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-texas/" xr:uid="{AB3D214B-2AE5-4BC6-AE6A-A2ED6597635A}"/>
-    <hyperlink ref="A18" r:id="rId44" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-utah/" xr:uid="{BCFE484C-D1CC-44BC-85EA-1EB9FDC522F3}"/>
-    <hyperlink ref="A5" r:id="rId45" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-vermont/" xr:uid="{5E086EC7-0FEC-4059-9B30-55124EE4159F}"/>
-    <hyperlink ref="A11" r:id="rId46" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-virginia/" xr:uid="{9FED955B-DB39-4490-A273-7E8E648F4B6A}"/>
-    <hyperlink ref="A14" r:id="rId47" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-washington/" xr:uid="{7241363E-6C6E-4A90-8606-58FF95A91C87}"/>
-    <hyperlink ref="A28" r:id="rId48" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-west-virginia/" xr:uid="{CF6B0C3B-7570-4C6E-BCEF-1ABF66953964}"/>
-    <hyperlink ref="A20" r:id="rId49" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-wisconsin/" xr:uid="{FD889EED-BA6C-48D8-987B-417289EDEB55}"/>
-    <hyperlink ref="A33" r:id="rId50" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-wyoming/" xr:uid="{46A2EFBE-ABF1-45A7-A8FC-42C98C19E18C}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-alabama/" xr:uid="{B8EEB07A-1528-4809-901C-84E261346A49}"/>
+    <hyperlink ref="A13" r:id="rId2" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-alaska/" xr:uid="{D7090925-29C3-4374-98BC-74E0B06BF11D}"/>
+    <hyperlink ref="A30" r:id="rId3" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-arizona/" xr:uid="{E234009C-5216-409E-AB92-0C31D6A4F026}"/>
+    <hyperlink ref="A27" r:id="rId4" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-arkansas/" xr:uid="{F2D59225-0AE2-4CBE-8A79-944F38C6563D}"/>
+    <hyperlink ref="A48" r:id="rId5" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-california/" xr:uid="{7F9D9BD2-9B66-4A53-9133-73C2DFDCC5D1}"/>
+    <hyperlink ref="A42" r:id="rId6" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-colorado/" xr:uid="{59E73309-0700-4BCA-A8D5-690679D19D03}"/>
+    <hyperlink ref="A35" r:id="rId7" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-connecticut/" xr:uid="{103EE9DA-E434-4C44-94CD-72B7FF330B7F}"/>
+    <hyperlink ref="A50" r:id="rId8" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-delaware/" xr:uid="{11AD223E-7096-4772-B00A-4F39A5CB44FF}"/>
+    <hyperlink ref="A52" r:id="rId9" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-florida/" xr:uid="{9FC28D3D-96A5-4036-8F76-D7CEE60ECB1C}"/>
+    <hyperlink ref="A32" r:id="rId10" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-georgia/" xr:uid="{4C930472-059E-44FF-AFAD-AFAE62ACD4BD}"/>
+    <hyperlink ref="A9" r:id="rId11" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-hawaii/" xr:uid="{751D5BB7-5748-43AA-A0E2-D90108AECB88}"/>
+    <hyperlink ref="A5" r:id="rId12" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-idaho/" xr:uid="{BA519E37-3338-4CC9-ADB2-814A56EFB92A}"/>
+    <hyperlink ref="A24" r:id="rId13" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-illinois/" xr:uid="{A2C36098-E367-4648-B83F-82C7444B93B1}"/>
+    <hyperlink ref="A8" r:id="rId14" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-indiana/" xr:uid="{42BFB8E0-7C4A-4DD8-B485-19B192E7A24D}"/>
+    <hyperlink ref="A11" r:id="rId15" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-iowa/" xr:uid="{24B9E0AC-BDE6-46CC-B6AA-6287DF65E32D}"/>
+    <hyperlink ref="A26" r:id="rId16" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-kansas/" xr:uid="{0F7160B9-741C-4C8A-B63E-DC6A41874DD6}"/>
+    <hyperlink ref="A47" r:id="rId17" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-kentucky/" xr:uid="{D335D252-EFCD-4B1B-B768-4EEFDFC8599D}"/>
+    <hyperlink ref="A51" r:id="rId18" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-louisiana/" xr:uid="{8D92997F-079D-4A19-BC4E-0806E3135B6B}"/>
+    <hyperlink ref="A4" r:id="rId19" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-maine/" xr:uid="{D089DFDE-7E0A-4956-A260-B9296EC870F1}"/>
+    <hyperlink ref="A31" r:id="rId20" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-maryland/" xr:uid="{BE1352D6-C243-439E-AC5D-D6DC57530AE1}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-massachusetts/" xr:uid="{80329969-C9A3-4DA6-8B6A-BBD52944B608}"/>
+    <hyperlink ref="A49" r:id="rId22" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-michigan/" xr:uid="{374F9FDE-F22B-4FCD-B768-9F938BD45A81}"/>
+    <hyperlink ref="A20" r:id="rId23" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-minnesota/" xr:uid="{6963BD3C-E519-4106-B0DC-EA843DF1D110}"/>
+    <hyperlink ref="A28" r:id="rId24" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-mississippi/" xr:uid="{D50854D3-1871-4232-B218-AEADBD8303DD}"/>
+    <hyperlink ref="A46" r:id="rId25" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-missouri/" xr:uid="{0CEBCE59-73EA-41B4-BE04-40D48F4779B5}"/>
+    <hyperlink ref="A33" r:id="rId26" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-montana/" xr:uid="{02D5FBB8-9378-4282-8A37-03C4BFCD693C}"/>
+    <hyperlink ref="A43" r:id="rId27" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-nebraska/" xr:uid="{EC5B2D80-C5A9-4922-A751-6C428EA56DD3}"/>
+    <hyperlink ref="A45" r:id="rId28" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-nevada/" xr:uid="{9CDA052A-EA14-4B36-B66C-253E27763259}"/>
+    <hyperlink ref="A10" r:id="rId29" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-hampshire/" xr:uid="{7129EDB6-098C-46EA-B881-6B9459C7A6F7}"/>
+    <hyperlink ref="A41" r:id="rId30" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-jersey/" xr:uid="{FDCE2A41-BE98-424F-A710-F32D6FE05507}"/>
+    <hyperlink ref="A22" r:id="rId31" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-mexico/" xr:uid="{CB48E3AA-F31F-4B09-8FB8-412D71384000}"/>
+    <hyperlink ref="A44" r:id="rId32" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-york/" xr:uid="{95ACF90A-B858-4695-8F98-786EA3BA7D26}"/>
+    <hyperlink ref="A14" r:id="rId33" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-north-carolina/" xr:uid="{C884B6D0-4A86-41AD-92ED-6EEAA7D0A9CE}"/>
+    <hyperlink ref="A17" r:id="rId34" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-north-dakota/" xr:uid="{0570C618-8E5B-4788-B39E-D2EF77916CDB}"/>
+    <hyperlink ref="A3" r:id="rId35" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-ohio/" xr:uid="{63C6835F-CFCD-4F0F-833B-864B15A6F4C8}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-oklahoma/" xr:uid="{13FCA878-9C64-4247-9DEF-72674D154B05}"/>
+    <hyperlink ref="A7" r:id="rId37" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-oregon/" xr:uid="{73A29B9F-C44F-4700-BBE4-224CE180EAF9}"/>
+    <hyperlink ref="A18" r:id="rId38" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-pennsylvania/" xr:uid="{8CCF4826-6E9C-4809-A7DB-0573195FC95C}"/>
+    <hyperlink ref="A37" r:id="rId39" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-rhode-island/" xr:uid="{F265311C-6FFB-41A5-B650-C473F1A1C043}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-south-carolina/" xr:uid="{1169D0D3-5AAB-492A-AA19-80B14264845E}"/>
+    <hyperlink ref="A25" r:id="rId41" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-south-dakota/" xr:uid="{4E3130E6-4999-48BC-A60D-C357EB96FF04}"/>
+    <hyperlink ref="A16" r:id="rId42" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-tennessee/" xr:uid="{6084385C-0CDA-4016-8B8C-7902AF953B94}"/>
+    <hyperlink ref="A39" r:id="rId43" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-texas/" xr:uid="{AB3D214B-2AE5-4BC6-AE6A-A2ED6597635A}"/>
+    <hyperlink ref="A19" r:id="rId44" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-utah/" xr:uid="{BCFE484C-D1CC-44BC-85EA-1EB9FDC522F3}"/>
+    <hyperlink ref="A6" r:id="rId45" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-vermont/" xr:uid="{5E086EC7-0FEC-4059-9B30-55124EE4159F}"/>
+    <hyperlink ref="A12" r:id="rId46" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-virginia/" xr:uid="{9FED955B-DB39-4490-A273-7E8E648F4B6A}"/>
+    <hyperlink ref="A15" r:id="rId47" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-washington/" xr:uid="{7241363E-6C6E-4A90-8606-58FF95A91C87}"/>
+    <hyperlink ref="A29" r:id="rId48" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-west-virginia/" xr:uid="{CF6B0C3B-7570-4C6E-BCEF-1ABF66953964}"/>
+    <hyperlink ref="A21" r:id="rId49" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-wisconsin/" xr:uid="{FD889EED-BA6C-48D8-987B-417289EDEB55}"/>
+    <hyperlink ref="A34" r:id="rId50" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-wyoming/" xr:uid="{46A2EFBE-ABF1-45A7-A8FC-42C98C19E18C}"/>
+    <hyperlink ref="G23" r:id="rId51" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-alabama/" xr:uid="{9401A060-2C82-42BC-B8FB-E900273A91B5}"/>
+    <hyperlink ref="G12" r:id="rId52" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-alaska/" xr:uid="{D8B9B541-DF24-41C4-AF88-F6AF1F9F0658}"/>
+    <hyperlink ref="G30" r:id="rId53" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-arizona/" xr:uid="{1694AD6C-6DF7-4272-8173-E1DB1BDB688B}"/>
+    <hyperlink ref="G27" r:id="rId54" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-arkansas/" xr:uid="{7731643F-FF82-493E-8855-833F1D523C99}"/>
+    <hyperlink ref="G32" r:id="rId55" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-georgia/" xr:uid="{C2068D7B-166D-41D0-8D70-0F5FE8314F7E}"/>
+    <hyperlink ref="G8" r:id="rId56" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-hawaii/" xr:uid="{29B46782-CDCA-4259-8D0C-9D78C682B475}"/>
+    <hyperlink ref="G4" r:id="rId57" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-idaho/" xr:uid="{42C8C5E0-78A9-4546-9CB2-51EC9FB2848C}"/>
+    <hyperlink ref="G24" r:id="rId58" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-illinois/" xr:uid="{BC974980-7B2B-4C6B-A33C-FC1578A55777}"/>
+    <hyperlink ref="G7" r:id="rId59" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-indiana/" xr:uid="{72351837-A0A1-499D-A8D7-A2D27A2F378D}"/>
+    <hyperlink ref="G10" r:id="rId60" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-iowa/" xr:uid="{71DDABD8-2874-4E5A-9AEE-33B2FC5AB457}"/>
+    <hyperlink ref="G26" r:id="rId61" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-kansas/" xr:uid="{CE40C89C-DECA-4E81-9A53-7E6D248F7F54}"/>
+    <hyperlink ref="G3" r:id="rId62" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-maine/" xr:uid="{8FCD1427-77E2-4A17-AD97-0BB6D70E0BBC}"/>
+    <hyperlink ref="G31" r:id="rId63" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-maryland/" xr:uid="{92611096-228B-4FB9-9541-852C649AF7FB}"/>
+    <hyperlink ref="G22" r:id="rId64" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-massachusetts/" xr:uid="{0D00D8D1-B833-4CF0-BA99-6DB503694F90}"/>
+    <hyperlink ref="G19" r:id="rId65" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-minnesota/" xr:uid="{0F40D259-60A9-4A8D-A361-3036D32B4ADD}"/>
+    <hyperlink ref="G28" r:id="rId66" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-mississippi/" xr:uid="{1184F77C-9C9D-4955-8AEC-556F62FA336C}"/>
+    <hyperlink ref="G33" r:id="rId67" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-montana/" xr:uid="{88661C92-7202-4CEE-9376-5968262788C0}"/>
+    <hyperlink ref="G9" r:id="rId68" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-hampshire/" xr:uid="{990D55BC-1295-4E3A-A0BA-9C0BE305BA06}"/>
+    <hyperlink ref="G21" r:id="rId69" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-mexico/" xr:uid="{2C685455-378D-4B65-96AD-5F3D0390D8D1}"/>
+    <hyperlink ref="G13" r:id="rId70" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-north-carolina/" xr:uid="{79CCC681-61E4-4D23-9A13-4DFC20DEC7D2}"/>
+    <hyperlink ref="G16" r:id="rId71" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-north-dakota/" xr:uid="{2BA8AD61-9518-4191-B6B1-928E229A8E84}"/>
+    <hyperlink ref="G2" r:id="rId72" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-ohio/" xr:uid="{F8A99799-4116-440A-BDF6-0125C840F360}"/>
+    <hyperlink ref="G6" r:id="rId73" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-oregon/" xr:uid="{749C1C17-1DE1-4DC5-8198-9DA5E9B7DBA6}"/>
+    <hyperlink ref="G17" r:id="rId74" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-pennsylvania/" xr:uid="{D41762C6-CEEF-4085-89EE-9E7C4060EB2D}"/>
+    <hyperlink ref="G25" r:id="rId75" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-south-dakota/" xr:uid="{93AE0BC7-3823-4F5F-B567-B17A8D329A68}"/>
+    <hyperlink ref="G15" r:id="rId76" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-tennessee/" xr:uid="{78BC80AF-BB84-43CC-9A60-7EC73731C8D0}"/>
+    <hyperlink ref="G18" r:id="rId77" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-utah/" xr:uid="{B00FEB75-6A77-4AC7-BC90-70CEE6CB3EC9}"/>
+    <hyperlink ref="G5" r:id="rId78" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-vermont/" xr:uid="{1D294F64-310E-447E-8150-7A8413B832E9}"/>
+    <hyperlink ref="G11" r:id="rId79" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-virginia/" xr:uid="{FAC9DB2E-5B52-4D50-8832-7F437E51E7DC}"/>
+    <hyperlink ref="G14" r:id="rId80" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-washington/" xr:uid="{A00E1D4C-A382-4809-A05D-BBA00675F47C}"/>
+    <hyperlink ref="G29" r:id="rId81" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-west-virginia/" xr:uid="{9A2768B3-1384-4ABC-A5FC-DB036E8378CC}"/>
+    <hyperlink ref="G20" r:id="rId82" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-wisconsin/" xr:uid="{660339CB-A08F-4925-957E-7D937909C76E}"/>
+    <hyperlink ref="K6" r:id="rId83" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-california/" xr:uid="{012CFA3D-3663-4D29-B04F-9590EEE70D8E}"/>
+    <hyperlink ref="K12" r:id="rId84" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-colorado/" xr:uid="{34931D24-541B-4039-BD42-7331F623CFAD}"/>
+    <hyperlink ref="K19" r:id="rId85" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-connecticut/" xr:uid="{9FDE442A-A015-4C0C-882A-255B45A0D797}"/>
+    <hyperlink ref="K4" r:id="rId86" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-delaware/" xr:uid="{94F0E16D-EF59-4BC5-9572-A70E5F23FC37}"/>
+    <hyperlink ref="K2" r:id="rId87" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-florida/" xr:uid="{5EC3FD1D-B6A0-44E9-8FD6-5E9F7A4A911B}"/>
+    <hyperlink ref="K7" r:id="rId88" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-kentucky/" xr:uid="{80FA18B7-D515-4E23-8D66-E0490D0E5472}"/>
+    <hyperlink ref="K3" r:id="rId89" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-louisiana/" xr:uid="{74C29C7E-E66E-43D6-ACF0-95988ECD66AD}"/>
+    <hyperlink ref="K5" r:id="rId90" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-michigan/" xr:uid="{9E7D1632-5E45-4AC9-B284-0002AD6CC396}"/>
+    <hyperlink ref="K8" r:id="rId91" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-missouri/" xr:uid="{38A87293-453A-4899-BB8C-39F36109B195}"/>
+    <hyperlink ref="K11" r:id="rId92" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-nebraska/" xr:uid="{198BADC9-2171-439D-9DA0-7B87650EDAC3}"/>
+    <hyperlink ref="K9" r:id="rId93" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-nevada/" xr:uid="{F42F63E7-A4F1-402C-807B-94633C52D3ED}"/>
+    <hyperlink ref="K13" r:id="rId94" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-jersey/" xr:uid="{8CFC9FF0-B3AA-48E7-B3B8-841FBAE98493}"/>
+    <hyperlink ref="K10" r:id="rId95" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-new-york/" xr:uid="{1ECDFBE4-744D-47DE-897D-9F14FD6BEBF8}"/>
+    <hyperlink ref="K18" r:id="rId96" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-oklahoma/" xr:uid="{A259D9B3-1FB6-4FB5-93ED-1E071F4497CC}"/>
+    <hyperlink ref="K17" r:id="rId97" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-rhode-island/" xr:uid="{4C566BE7-7EF3-48A6-9396-BB50357D70DD}"/>
+    <hyperlink ref="K14" r:id="rId98" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-south-carolina/" xr:uid="{2AC0DA09-E1B7-4154-8D52-614C581478E1}"/>
+    <hyperlink ref="K15" r:id="rId99" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-texas/" xr:uid="{827B99EF-5F4D-4DE4-BE98-5DC9A8333F70}"/>
+    <hyperlink ref="K20" r:id="rId100" display="https://www.insure.com/car-insurance/average-car-insurance-cost-in-wyoming/" xr:uid="{9788D49A-06CE-4CD7-8000-9FAA17FFA966}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>